--- a/teaching/traditional_assets/database/data/saint_lucia/saint_lucia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/saint_lucia/saint_lucia_financial_svcs_non_bank_insurance.xlsx
@@ -597,34 +597,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7728395061728395</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="J2">
-        <v>0.7657899566232899</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="K2">
-        <v>2.93</v>
+        <v>2.24</v>
       </c>
       <c r="L2">
-        <v>0.7234567901234569</v>
+        <v>0.3796610169491526</v>
       </c>
       <c r="M2">
-        <v>0.499</v>
+        <v>1.8</v>
       </c>
       <c r="N2">
-        <v>0.009362101313320825</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="O2">
-        <v>0.1703071672354949</v>
+        <v>0.8035714285714285</v>
       </c>
       <c r="P2">
-        <v>0.499</v>
+        <v>1.8</v>
       </c>
       <c r="Q2">
-        <v>0.009362101313320825</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="R2">
-        <v>0.1703071672354949</v>
+        <v>0.8035714285714285</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.92</v>
+        <v>3.9</v>
       </c>
       <c r="V2">
-        <v>0.1110694183864916</v>
+        <v>0.08783783783783784</v>
       </c>
       <c r="W2">
-        <v>0.08184357541899442</v>
+        <v>0.06021505376344086</v>
       </c>
       <c r="X2">
-        <v>0.03508421348321646</v>
+        <v>0.02909367449159898</v>
       </c>
       <c r="Y2">
-        <v>0.04675936193577797</v>
+        <v>0.03112137927184188</v>
       </c>
       <c r="Z2">
-        <v>0.1219145093317279</v>
+        <v>0.188618925831202</v>
       </c>
       <c r="AA2">
-        <v>0.09336090681289357</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="AB2">
-        <v>0.03508421348321646</v>
+        <v>0.03694839371105331</v>
       </c>
       <c r="AC2">
-        <v>0.05827669332967711</v>
+        <v>0.09892117150633799</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="AG2">
-        <v>-5.92</v>
+        <v>22.9</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.3764044943820224</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.4161490683229813</v>
       </c>
       <c r="AJ2">
-        <v>-0.1249472351203039</v>
+        <v>0.3402674591381873</v>
       </c>
       <c r="AK2">
-        <v>-0.1892583120204603</v>
+        <v>0.3785123966942149</v>
       </c>
       <c r="AL2">
-        <v>0.041</v>
+        <v>1.26</v>
       </c>
       <c r="AM2">
-        <v>0.041</v>
+        <v>1.26</v>
       </c>
       <c r="AO2">
-        <v>76.34146341463413</v>
+        <v>3.373015873015873</v>
       </c>
       <c r="AQ2">
-        <v>76.34146341463413</v>
+        <v>3.373015873015873</v>
       </c>
     </row>
     <row r="3">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7728395061728395</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="J3">
-        <v>0.7657899566232899</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="K3">
-        <v>2.93</v>
+        <v>2.24</v>
       </c>
       <c r="L3">
-        <v>0.7234567901234569</v>
+        <v>0.3796610169491526</v>
       </c>
       <c r="M3">
-        <v>0.499</v>
+        <v>1.8</v>
       </c>
       <c r="N3">
-        <v>0.009362101313320825</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="O3">
-        <v>0.1703071672354949</v>
+        <v>0.8035714285714285</v>
       </c>
       <c r="P3">
-        <v>0.499</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>0.009362101313320825</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="R3">
-        <v>0.1703071672354949</v>
+        <v>0.8035714285714285</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,67 +755,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.92</v>
+        <v>3.9</v>
       </c>
       <c r="V3">
-        <v>0.1110694183864916</v>
+        <v>0.08783783783783784</v>
       </c>
       <c r="W3">
-        <v>0.08184357541899442</v>
+        <v>0.06021505376344086</v>
       </c>
       <c r="X3">
-        <v>0.03508421348321646</v>
+        <v>0.02909367449159898</v>
       </c>
       <c r="Y3">
-        <v>0.04675936193577797</v>
+        <v>0.03112137927184188</v>
       </c>
       <c r="Z3">
-        <v>0.1219145093317279</v>
+        <v>0.188618925831202</v>
       </c>
       <c r="AA3">
-        <v>0.09336090681289357</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="AB3">
-        <v>0.03508421348321646</v>
+        <v>0.03694839371105331</v>
       </c>
       <c r="AC3">
-        <v>0.05827669332967711</v>
+        <v>0.09892117150633799</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="AG3">
-        <v>-5.92</v>
+        <v>22.9</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.3764044943820224</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.4161490683229813</v>
       </c>
       <c r="AJ3">
-        <v>-0.1249472351203039</v>
+        <v>0.3402674591381873</v>
       </c>
       <c r="AK3">
-        <v>-0.1892583120204603</v>
+        <v>0.3785123966942149</v>
       </c>
       <c r="AL3">
-        <v>0.041</v>
+        <v>1.26</v>
       </c>
       <c r="AM3">
-        <v>0.041</v>
+        <v>1.26</v>
       </c>
       <c r="AO3">
-        <v>76.34146341463413</v>
+        <v>3.373015873015873</v>
       </c>
       <c r="AQ3">
-        <v>76.34146341463413</v>
+        <v>3.373015873015873</v>
       </c>
     </row>
   </sheetData>
